--- a/Monopy.PreceRateWage/Monopy.PreceRateWage.WinForm/Excel/模板导出一厂——检包——扫釉月报.xlsx
+++ b/Monopy.PreceRateWage/Monopy.PreceRateWage.WinForm/Excel/模板导出一厂——检包——扫釉月报.xlsx
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
-  <si>
-    <t>XXXX年XX月扫釉月报</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
   <si>
     <t>类别名称</t>
   </si>
@@ -56,23 +53,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -84,19 +76,89 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,55 +173,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -171,67 +222,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -252,187 +242,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,6 +451,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -472,15 +477,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,9 +498,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,26 +542,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,167 +553,164 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="18" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1103,64 +1090,47 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:10">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
-  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
